--- a/TimeLog.xlsx
+++ b/TimeLog.xlsx
@@ -60,7 +60,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -138,10 +138,10 @@
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="165" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -449,7 +449,7 @@
   <dimension ref="A2:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="V8" sqref="V8"/>
+      <selection activeCell="K6" sqref="K6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -612,22 +612,33 @@
       <c r="A6" s="2">
         <v>4</v>
       </c>
+      <c r="B6" s="4">
+        <v>44669</v>
+      </c>
       <c r="C6">
         <v>3</v>
       </c>
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="E6" s="5"/>
-      <c r="F6" s="5"/>
-      <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
+      <c r="E6" s="5">
+        <v>6</v>
+      </c>
+      <c r="F6" s="5">
+        <v>0</v>
+      </c>
+      <c r="G6" s="5">
+        <v>0.5</v>
+      </c>
+      <c r="H6" s="5">
+        <v>1</v>
+      </c>
       <c r="I6" s="5"/>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>11.5</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">

--- a/TimeLog.xlsx
+++ b/TimeLog.xlsx
@@ -449,7 +449,7 @@
   <dimension ref="A2:L12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K6" sqref="K6"/>
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -633,12 +633,14 @@
       <c r="H6" s="5">
         <v>1</v>
       </c>
-      <c r="I6" s="5"/>
+      <c r="I6" s="5">
+        <v>12</v>
+      </c>
       <c r="J6" s="5"/>
       <c r="K6" s="5"/>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>11.5</v>
+        <v>23.5</v>
       </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">

--- a/TimeLog.xlsx
+++ b/TimeLog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
   <si>
     <t>Lectures</t>
   </si>
@@ -52,6 +52,15 @@
   </si>
   <si>
     <t>Week</t>
+  </si>
+  <si>
+    <t>Written</t>
+  </si>
+  <si>
+    <t>Code</t>
+  </si>
+  <si>
+    <t>Percentage</t>
   </si>
 </sst>
 </file>
@@ -122,11 +131,12 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -144,10 +154,15 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Percent" xfId="2" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -157,6 +172,164 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-AU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$3:$L$12</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:axId val="333345920"/>
+        <c:axId val="333347456"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="333345920"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="333347456"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="333347456"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="333345920"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>180975</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -446,10 +619,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:L12"/>
+  <dimension ref="A2:P12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="M7" sqref="M7"/>
+      <selection activeCell="N16" sqref="N16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -457,9 +630,10 @@
     <col min="1" max="2" width="9.140625" style="2"/>
     <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="11" style="8" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>11</v>
       </c>
@@ -496,8 +670,20 @@
       <c r="L2" s="3" t="s">
         <v>10</v>
       </c>
+      <c r="M2" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="P2" s="7" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>1</v>
       </c>
@@ -510,9 +696,15 @@
       <c r="D3" s="1">
         <v>1</v>
       </c>
-      <c r="E3" s="5"/>
-      <c r="F3" s="5"/>
-      <c r="G3" s="5"/>
+      <c r="E3" s="5">
+        <v>0</v>
+      </c>
+      <c r="F3" s="5">
+        <v>0</v>
+      </c>
+      <c r="G3" s="5">
+        <v>0</v>
+      </c>
       <c r="H3" s="6">
         <v>3</v>
       </c>
@@ -529,8 +721,22 @@
         <f>SUM(C3:K3)</f>
         <v>16</v>
       </c>
+      <c r="M3">
+        <v>26</v>
+      </c>
+      <c r="N3">
+        <v>24</v>
+      </c>
+      <c r="O3">
+        <f>24+31</f>
+        <v>55</v>
+      </c>
+      <c r="P3" s="8">
+        <f>SUM(M3:N3)/O3</f>
+        <v>0.90909090909090906</v>
+      </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>2</v>
       </c>
@@ -569,7 +775,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>3</v>
       </c>
@@ -607,8 +813,22 @@
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
+      <c r="M5" s="5">
+        <v>15</v>
+      </c>
+      <c r="N5" s="5">
+        <v>26.5</v>
+      </c>
+      <c r="O5">
+        <f>33+15</f>
+        <v>48</v>
+      </c>
+      <c r="P5" s="8">
+        <f>SUM(M5:N5)/O5</f>
+        <v>0.86458333333333337</v>
+      </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>4</v>
       </c>
@@ -636,37 +856,52 @@
       <c r="I6" s="5">
         <v>12</v>
       </c>
-      <c r="J6" s="5"/>
-      <c r="K6" s="5"/>
+      <c r="J6" s="5">
+        <v>0</v>
+      </c>
+      <c r="K6" s="5">
+        <v>6</v>
+      </c>
       <c r="L6">
         <f t="shared" si="0"/>
-        <v>23.5</v>
+        <v>29.5</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <f>A6+1</f>
         <v>5</v>
       </c>
+      <c r="B7" s="4">
+        <f>B6+7</f>
+        <v>44676</v>
+      </c>
       <c r="C7">
         <v>3</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="E7" s="5"/>
-      <c r="F7" s="5"/>
-      <c r="G7" s="5"/>
+      <c r="E7" s="5">
+        <v>0</v>
+      </c>
+      <c r="F7" s="5">
+        <v>4</v>
+      </c>
+      <c r="G7" s="5">
+        <f>3+3</f>
+        <v>6</v>
+      </c>
       <c r="H7" s="5"/>
       <c r="I7" s="5"/>
       <c r="J7" s="5"/>
       <c r="K7" s="5"/>
       <c r="L7">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>14</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <f t="shared" ref="A8:A12" si="1">A7+1</f>
         <v>6</v>
@@ -689,7 +924,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -712,7 +947,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -735,7 +970,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <f t="shared" si="1"/>
         <v>9</v>
@@ -758,7 +993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <f t="shared" si="1"/>
         <v>10</v>
@@ -783,6 +1018,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 

--- a/TimeLog.xlsx
+++ b/TimeLog.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
     <t>Lectures</t>
   </si>
@@ -48,9 +48,6 @@
     <t>Saturday</t>
   </si>
   <si>
-    <t>Total</t>
-  </si>
-  <si>
     <t>Week</t>
   </si>
   <si>
@@ -61,6 +58,42 @@
   </si>
   <si>
     <t>Percentage</t>
+  </si>
+  <si>
+    <t>Pacman</t>
+  </si>
+  <si>
+    <t>Schedule</t>
+  </si>
+  <si>
+    <t>Blackjack</t>
+  </si>
+  <si>
+    <t>Reconstruct</t>
+  </si>
+  <si>
+    <t>W total</t>
+  </si>
+  <si>
+    <t>C Total</t>
+  </si>
+  <si>
+    <t>Foundations</t>
+  </si>
+  <si>
+    <t>Sentiment</t>
+  </si>
+  <si>
+    <t>Total time</t>
+  </si>
+  <si>
+    <t>Car</t>
+  </si>
+  <si>
+    <t>-</t>
+  </si>
+  <si>
+    <t>Logic</t>
   </si>
 </sst>
 </file>
@@ -122,12 +155,27 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
       <diagonal/>
     </border>
   </borders>
@@ -136,28 +184,41 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -188,6 +249,10 @@
     </mc:Fallback>
   </mc:AlternateContent>
   <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
     <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
@@ -196,44 +261,55 @@
         <c:grouping val="clustered"/>
         <c:varyColors val="0"/>
         <c:ser>
-          <c:idx val="0"/>
+          <c:idx val="1"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total time</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$L$3:$L$12</c:f>
+              <c:f>Sheet1!$M$3:$M$12</c:f>
               <c:numCache>
-                <c:formatCode>General</c:formatCode>
+                <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
                 <c:ptCount val="10"/>
                 <c:pt idx="0">
-                  <c:v>16</c:v>
+                  <c:v>12</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="2">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>25.5</c:v>
+                </c:pt>
+                <c:pt idx="4">
                   <c:v>25</c:v>
                 </c:pt>
-                <c:pt idx="3">
-                  <c:v>29.5</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>14</c:v>
-                </c:pt>
                 <c:pt idx="5">
-                  <c:v>4</c:v>
+                  <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>4</c:v>
+                  <c:v>18</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>4</c:v>
+                  <c:v>6</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>4</c:v>
+                  <c:v>0</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -248,11 +324,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="333345920"/>
-        <c:axId val="333347456"/>
+        <c:axId val="41319808"/>
+        <c:axId val="41469056"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="333345920"/>
+        <c:axId val="41319808"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -261,7 +337,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="333347456"/>
+        <c:crossAx val="41469056"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -269,18 +345,156 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="333347456"/>
+        <c:axId val="41469056"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
         <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:numFmt formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-" sourceLinked="1"/>
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="333345920"/>
+        <c:crossAx val="41319808"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="en-AU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$2</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Percentage</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$3:$S$12</c:f>
+              <c:numCache>
+                <c:formatCode>0%</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>0.90909090909090906</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.86458333333333337</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.86538461538461542</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>0</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:marker val="1"/>
+        <c:smooth val="0"/>
+        <c:axId val="254866944"/>
+        <c:axId val="266223616"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="254866944"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="266223616"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="266223616"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0%" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="254866944"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -301,20 +515,20 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>16</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>13</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>24</xdr:col>
-      <xdr:colOff>180975</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>590550</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="Chart 1"/>
+        <xdr:cNvPr id="4" name="Chart 3"/>
         <xdr:cNvGraphicFramePr/>
       </xdr:nvGraphicFramePr>
       <xdr:xfrm>
@@ -324,6 +538,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>266700</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>66675</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -619,401 +863,569 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:P12"/>
+  <dimension ref="A2:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N16" sqref="N16"/>
+      <selection activeCell="U9" sqref="U9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="9.140625" style="2"/>
-    <col min="5" max="5" width="10.5703125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="16" width="11" style="8" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="16.28515625" style="1" customWidth="1"/>
+    <col min="3" max="5" width="9.140625" style="1"/>
+    <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="8" customWidth="1"/>
+    <col min="19" max="19" width="11" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="4"/>
+      <c r="C2" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="G2" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="H2" s="4" t="s">
+        <v>4</v>
+      </c>
+      <c r="I2" s="4" t="s">
+        <v>5</v>
+      </c>
+      <c r="J2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="K2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="L2" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="M2" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="3" t="s">
+      <c r="P2" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q2" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="R2" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="S2" s="10" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" s="5">
         <v>1</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="B3" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C3" s="6">
+        <v>44648</v>
+      </c>
+      <c r="D3" s="5">
+        <v>3</v>
+      </c>
+      <c r="E3" s="13">
+        <v>1</v>
+      </c>
+      <c r="F3" s="8">
+        <v>0</v>
+      </c>
+      <c r="G3" s="8">
+        <v>0</v>
+      </c>
+      <c r="H3" s="8">
+        <v>0</v>
+      </c>
+      <c r="I3" s="9">
+        <v>3</v>
+      </c>
+      <c r="J3" s="9">
+        <v>3</v>
+      </c>
+      <c r="K3" s="8">
+        <v>3</v>
+      </c>
+      <c r="L3" s="8">
+        <v>3</v>
+      </c>
+      <c r="M3" s="8">
+        <f>SUM(F3:L3)</f>
+        <v>12</v>
+      </c>
+      <c r="O3" s="7">
+        <v>26</v>
+      </c>
+      <c r="P3" s="7">
+        <v>31</v>
+      </c>
+      <c r="Q3" s="7">
+        <v>24</v>
+      </c>
+      <c r="R3" s="7">
+        <v>24</v>
+      </c>
+      <c r="S3" s="11">
+        <f>(O3+Q3)/(P3+R3)</f>
+        <v>0.90909090909090906</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4" s="5">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="B4" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C4" s="6">
+        <v>44655</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3</v>
+      </c>
+      <c r="E4" s="5">
+        <v>1</v>
+      </c>
+      <c r="F4" s="8">
+        <v>0</v>
+      </c>
+      <c r="G4" s="8">
+        <v>0</v>
+      </c>
+      <c r="H4" s="8">
+        <v>0</v>
+      </c>
+      <c r="I4" s="8">
+        <v>0</v>
+      </c>
+      <c r="J4" s="8">
+        <v>0</v>
+      </c>
+      <c r="K4" s="8">
+        <v>0</v>
+      </c>
+      <c r="L4" s="8">
+        <v>0</v>
+      </c>
+      <c r="M4" s="8">
+        <f t="shared" ref="M4:P12" si="0">SUM(F4:L4)</f>
+        <v>0</v>
+      </c>
+      <c r="N4" s="2"/>
+      <c r="O4" s="8">
+        <v>26.5</v>
+      </c>
+      <c r="P4" s="8">
+        <v>33</v>
+      </c>
+      <c r="Q4" s="7">
+        <v>15</v>
+      </c>
+      <c r="R4" s="8">
+        <v>15</v>
+      </c>
+      <c r="S4" s="11">
+        <f>(O4+Q4)/(P4+R4)</f>
+        <v>0.86458333333333337</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="5"/>
+      <c r="C5" s="6">
+        <v>44662</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3</v>
+      </c>
+      <c r="E5" s="5">
+        <v>1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0</v>
+      </c>
+      <c r="G5" s="8">
+        <v>3</v>
+      </c>
+      <c r="H5" s="8">
+        <v>3</v>
+      </c>
+      <c r="I5" s="8">
+        <v>0</v>
+      </c>
+      <c r="J5" s="8">
+        <v>0</v>
+      </c>
+      <c r="K5" s="8">
+        <v>9</v>
+      </c>
+      <c r="L5" s="8">
+        <v>6</v>
+      </c>
+      <c r="M5" s="8">
+        <f t="shared" si="0"/>
+        <v>21</v>
+      </c>
+      <c r="N5" s="2"/>
+      <c r="O5" s="8"/>
+      <c r="P5" s="8"/>
+      <c r="Q5" s="8"/>
+      <c r="R5" s="8"/>
+      <c r="S5" s="11"/>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
         <v>4</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="B6" s="5" t="s">
+        <v>17</v>
+      </c>
+      <c r="C6" s="6">
+        <v>44669</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3</v>
+      </c>
+      <c r="E6" s="5">
+        <v>1</v>
+      </c>
+      <c r="F6" s="8">
+        <v>6</v>
+      </c>
+      <c r="G6" s="8">
+        <v>0</v>
+      </c>
+      <c r="H6" s="8">
+        <v>0.5</v>
+      </c>
+      <c r="I6" s="8">
+        <v>1</v>
+      </c>
+      <c r="J6" s="8">
+        <v>12</v>
+      </c>
+      <c r="K6" s="8">
+        <v>0</v>
+      </c>
+      <c r="L6" s="8">
+        <v>6</v>
+      </c>
+      <c r="M6" s="8">
+        <f t="shared" si="0"/>
+        <v>25.5</v>
+      </c>
+      <c r="N6" s="2"/>
+      <c r="O6" s="8">
+        <v>13</v>
+      </c>
+      <c r="P6" s="8">
+        <v>14</v>
+      </c>
+      <c r="Q6" s="8">
+        <v>32</v>
+      </c>
+      <c r="R6" s="7">
+        <v>38</v>
+      </c>
+      <c r="S6" s="11">
+        <f>(O6+Q6)/(P6+R6)</f>
+        <v>0.86538461538461542</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <f>A6+1</f>
         <v>5</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="B7" s="5" t="s">
+        <v>16</v>
+      </c>
+      <c r="C7" s="6">
+        <f>C6+7</f>
+        <v>44676</v>
+      </c>
+      <c r="D7" s="5">
+        <v>3</v>
+      </c>
+      <c r="E7" s="5">
+        <v>1</v>
+      </c>
+      <c r="F7" s="8">
+        <v>0</v>
+      </c>
+      <c r="G7" s="8">
+        <v>4</v>
+      </c>
+      <c r="H7" s="8">
+        <f>3+3</f>
         <v>6</v>
       </c>
-      <c r="J2" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="3" t="s">
+      <c r="I7" s="8">
+        <v>0</v>
+      </c>
+      <c r="J7" s="8">
+        <v>0</v>
+      </c>
+      <c r="K7" s="8">
         <v>9</v>
       </c>
-      <c r="L2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="M2" s="3" t="s">
-        <v>12</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="P2" s="7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A3" s="2">
-        <v>1</v>
-      </c>
-      <c r="B3" s="4">
-        <v>44648</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3" s="1">
-        <v>1</v>
-      </c>
-      <c r="E3" s="5">
-        <v>0</v>
-      </c>
-      <c r="F3" s="5">
-        <v>0</v>
-      </c>
-      <c r="G3" s="5">
-        <v>0</v>
-      </c>
-      <c r="H3" s="6">
-        <v>3</v>
-      </c>
-      <c r="I3" s="6">
-        <v>3</v>
-      </c>
-      <c r="J3" s="5">
-        <v>3</v>
-      </c>
-      <c r="K3" s="5">
-        <v>3</v>
-      </c>
-      <c r="L3">
-        <f>SUM(C3:K3)</f>
-        <v>16</v>
-      </c>
-      <c r="M3">
-        <v>26</v>
-      </c>
-      <c r="N3">
-        <v>24</v>
-      </c>
-      <c r="O3">
-        <f>24+31</f>
-        <v>55</v>
-      </c>
-      <c r="P3" s="8">
-        <f>SUM(M3:N3)/O3</f>
-        <v>0.90909090909090906</v>
-      </c>
-    </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A4" s="2">
-        <v>2</v>
-      </c>
-      <c r="B4" s="4">
-        <v>44655</v>
-      </c>
-      <c r="C4">
-        <v>3</v>
-      </c>
-      <c r="D4">
-        <v>1</v>
-      </c>
-      <c r="E4" s="5">
-        <v>0</v>
-      </c>
-      <c r="F4" s="5">
-        <v>0</v>
-      </c>
-      <c r="G4" s="5">
-        <v>0</v>
-      </c>
-      <c r="H4" s="5">
-        <v>0</v>
-      </c>
-      <c r="I4" s="5">
-        <v>0</v>
-      </c>
-      <c r="J4" s="5">
-        <v>0</v>
-      </c>
-      <c r="K4" s="5">
-        <v>0</v>
-      </c>
-      <c r="L4">
-        <f t="shared" ref="L4:L12" si="0">SUM(C4:K4)</f>
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A5" s="2">
-        <v>3</v>
-      </c>
-      <c r="B5" s="4">
-        <v>44662</v>
-      </c>
-      <c r="C5">
-        <v>3</v>
-      </c>
-      <c r="D5">
-        <v>1</v>
-      </c>
-      <c r="E5" s="5">
-        <v>0</v>
-      </c>
-      <c r="F5" s="5">
-        <v>3</v>
-      </c>
-      <c r="G5" s="5">
-        <v>3</v>
-      </c>
-      <c r="H5" s="5">
-        <v>0</v>
-      </c>
-      <c r="I5" s="5">
-        <v>0</v>
-      </c>
-      <c r="J5" s="5">
-        <v>9</v>
-      </c>
-      <c r="K5" s="5">
+      <c r="L7" s="8">
         <v>6</v>
       </c>
-      <c r="L5">
+      <c r="M7" s="8">
         <f t="shared" si="0"/>
         <v>25</v>
       </c>
-      <c r="M5" s="5">
-        <v>15</v>
-      </c>
-      <c r="N5" s="5">
-        <v>26.5</v>
-      </c>
-      <c r="O5">
-        <f>33+15</f>
-        <v>48</v>
-      </c>
-      <c r="P5" s="8">
-        <f>SUM(M5:N5)/O5</f>
-        <v>0.86458333333333337</v>
+      <c r="N7" s="2"/>
+      <c r="O7" s="7"/>
+      <c r="P7" s="7"/>
+      <c r="Q7" s="7"/>
+      <c r="R7" s="7"/>
+      <c r="S7" s="11" t="e">
+        <f>(O7+Q7)/(P7+R7)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A6" s="2">
-        <v>4</v>
-      </c>
-      <c r="B6" s="4">
-        <v>44669</v>
-      </c>
-      <c r="C6">
-        <v>3</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6" s="5">
-        <v>6</v>
-      </c>
-      <c r="F6" s="5">
-        <v>0</v>
-      </c>
-      <c r="G6" s="5">
-        <v>0.5</v>
-      </c>
-      <c r="H6" s="5">
-        <v>1</v>
-      </c>
-      <c r="I6" s="5">
-        <v>12</v>
-      </c>
-      <c r="J6" s="5">
-        <v>0</v>
-      </c>
-      <c r="K6" s="5">
-        <v>6</v>
-      </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
-        <v>29.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A7" s="2">
-        <f>A6+1</f>
-        <v>5</v>
-      </c>
-      <c r="B7" s="4">
-        <f>B6+7</f>
-        <v>44676</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>1</v>
-      </c>
-      <c r="E7" s="5">
-        <v>0</v>
-      </c>
-      <c r="F7" s="5">
-        <v>4</v>
-      </c>
-      <c r="G7" s="5">
-        <f>3+3</f>
-        <v>6</v>
-      </c>
-      <c r="H7" s="5"/>
-      <c r="I7" s="5"/>
-      <c r="J7" s="5"/>
-      <c r="K7" s="5"/>
-      <c r="L7">
-        <f t="shared" si="0"/>
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A8" s="2">
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
         <f t="shared" ref="A8:A12" si="1">A7+1</f>
         <v>6</v>
       </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
+      <c r="B8" s="5" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" s="6">
+        <v>44683</v>
+      </c>
+      <c r="D8" s="5">
+        <v>3</v>
+      </c>
+      <c r="E8" s="5">
         <v>1</v>
       </c>
-      <c r="E8" s="5"/>
-      <c r="F8" s="5"/>
-      <c r="G8" s="5"/>
-      <c r="H8" s="5"/>
-      <c r="I8" s="5"/>
-      <c r="J8" s="5"/>
-      <c r="K8" s="5"/>
-      <c r="L8">
+      <c r="F8" s="8">
+        <v>3</v>
+      </c>
+      <c r="G8" s="12">
+        <v>0</v>
+      </c>
+      <c r="H8" s="12">
+        <v>0</v>
+      </c>
+      <c r="I8" s="12">
+        <v>0</v>
+      </c>
+      <c r="J8" s="12">
+        <v>0</v>
+      </c>
+      <c r="K8" s="8">
+        <v>3</v>
+      </c>
+      <c r="L8" s="8">
+        <v>3</v>
+      </c>
+      <c r="M8" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>9</v>
+      </c>
+      <c r="N8" s="2"/>
+      <c r="O8" s="7"/>
+      <c r="P8" s="7"/>
+      <c r="Q8" s="7"/>
+      <c r="R8" s="7"/>
+      <c r="S8" s="11" t="e">
+        <f>(O8+Q8)/(P8+R8)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A9" s="2">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
         <f t="shared" si="1"/>
         <v>7</v>
       </c>
-      <c r="C9">
-        <v>3</v>
-      </c>
-      <c r="D9">
+      <c r="B9" s="5" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="6">
+        <v>44690</v>
+      </c>
+      <c r="D9" s="5">
+        <v>3</v>
+      </c>
+      <c r="E9" s="5">
         <v>1</v>
       </c>
-      <c r="E9" s="5"/>
-      <c r="F9" s="5"/>
-      <c r="G9" s="5"/>
-      <c r="H9" s="5"/>
-      <c r="I9" s="5"/>
-      <c r="J9" s="5"/>
-      <c r="K9" s="5"/>
-      <c r="L9">
+      <c r="F9" s="8">
+        <v>3</v>
+      </c>
+      <c r="G9" s="8">
+        <v>3</v>
+      </c>
+      <c r="H9" s="8">
+        <v>0</v>
+      </c>
+      <c r="I9" s="8">
+        <v>3</v>
+      </c>
+      <c r="J9" s="8">
+        <v>6</v>
+      </c>
+      <c r="K9" s="8">
+        <v>0</v>
+      </c>
+      <c r="L9" s="8">
+        <v>3</v>
+      </c>
+      <c r="M9" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>18</v>
+      </c>
+      <c r="N9" s="2"/>
+      <c r="O9" s="7"/>
+      <c r="P9" s="7"/>
+      <c r="Q9" s="7"/>
+      <c r="R9" s="7"/>
+      <c r="S9" s="11" t="e">
+        <f>(O9+Q9)/(P9+R9)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A10" s="2">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10" s="5">
         <f t="shared" si="1"/>
         <v>8</v>
       </c>
-      <c r="C10">
-        <v>3</v>
-      </c>
-      <c r="D10">
+      <c r="B10" s="5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" s="6">
+        <v>44697</v>
+      </c>
+      <c r="D10" s="5">
+        <v>3</v>
+      </c>
+      <c r="E10" s="5">
         <v>1</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="5"/>
-      <c r="G10" s="5"/>
-      <c r="H10" s="5"/>
-      <c r="I10" s="5"/>
-      <c r="J10" s="5"/>
-      <c r="K10" s="5"/>
-      <c r="L10">
+      <c r="F10" s="8">
+        <v>6</v>
+      </c>
+      <c r="G10" s="8"/>
+      <c r="H10" s="8"/>
+      <c r="I10" s="8"/>
+      <c r="J10" s="8"/>
+      <c r="K10" s="8"/>
+      <c r="L10" s="8"/>
+      <c r="M10" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>6</v>
+      </c>
+      <c r="N10" s="2"/>
+      <c r="O10" s="7"/>
+      <c r="P10" s="7"/>
+      <c r="Q10" s="7"/>
+      <c r="R10" s="7"/>
+      <c r="S10" s="11" t="e">
+        <f>(O10+Q10)/(P10+R10)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A11" s="2">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11" s="5">
         <f t="shared" si="1"/>
         <v>9</v>
       </c>
-      <c r="C11">
-        <v>3</v>
-      </c>
-      <c r="D11">
+      <c r="B11" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="C11" s="6">
+        <v>44704</v>
+      </c>
+      <c r="D11" s="5">
+        <v>3</v>
+      </c>
+      <c r="E11" s="5">
         <v>1</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="5"/>
-      <c r="G11" s="5"/>
-      <c r="H11" s="5"/>
-      <c r="I11" s="5"/>
-      <c r="J11" s="5"/>
-      <c r="K11" s="5"/>
-      <c r="L11">
+      <c r="F11" s="8"/>
+      <c r="G11" s="8"/>
+      <c r="H11" s="8"/>
+      <c r="I11" s="8"/>
+      <c r="J11" s="8"/>
+      <c r="K11" s="8"/>
+      <c r="L11" s="8"/>
+      <c r="M11" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="N11" s="2"/>
+      <c r="O11" s="7"/>
+      <c r="P11" s="7"/>
+      <c r="Q11" s="7"/>
+      <c r="R11" s="7"/>
+      <c r="S11" s="11" t="e">
+        <f>(O11+Q11)/(P11+R11)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.25">
-      <c r="A12" s="2">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12" s="5">
         <f t="shared" si="1"/>
         <v>10</v>
       </c>
-      <c r="C12">
-        <v>3</v>
-      </c>
-      <c r="D12">
+      <c r="B12" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C12" s="5"/>
+      <c r="D12" s="5">
+        <v>3</v>
+      </c>
+      <c r="E12" s="5">
         <v>1</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="5"/>
-      <c r="G12" s="5"/>
-      <c r="H12" s="5"/>
-      <c r="I12" s="5"/>
-      <c r="J12" s="5"/>
-      <c r="K12" s="5"/>
-      <c r="L12">
+      <c r="F12" s="8"/>
+      <c r="G12" s="8"/>
+      <c r="H12" s="8"/>
+      <c r="I12" s="8"/>
+      <c r="J12" s="8"/>
+      <c r="K12" s="8"/>
+      <c r="L12" s="8"/>
+      <c r="M12" s="8">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>0</v>
+      </c>
+      <c r="N12" s="2"/>
+      <c r="O12" s="7"/>
+      <c r="P12" s="7"/>
+      <c r="Q12" s="7"/>
+      <c r="R12" s="7"/>
+      <c r="S12" s="11" t="e">
+        <f>(O12+Q12)/(P12+R12)</f>
+        <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>

--- a/TimeLog.xlsx
+++ b/TimeLog.xlsx
@@ -15,6 +15,65 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>jason chan</author>
+  </authors>
+  <commentList>
+    <comment ref="L9" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jason chan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+CB data export and prelim EDA</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="F10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>jason chan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+start at 10.30
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
   <si>
@@ -104,7 +163,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -133,6 +192,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -300,7 +372,7 @@
                   <c:v>9</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>18</c:v>
+                  <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>6</c:v>
@@ -324,11 +396,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="41319808"/>
-        <c:axId val="41469056"/>
+        <c:axId val="344681088"/>
+        <c:axId val="353740672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="41319808"/>
+        <c:axId val="344681088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -337,7 +409,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41469056"/>
+        <c:crossAx val="353740672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -345,7 +417,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="41469056"/>
+        <c:axId val="353740672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -356,7 +428,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="41319808"/>
+        <c:crossAx val="344681088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -462,11 +534,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="254866944"/>
-        <c:axId val="266223616"/>
+        <c:axId val="371679232"/>
+        <c:axId val="371680768"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="254866944"/>
+        <c:axId val="371679232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -475,7 +547,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="266223616"/>
+        <c:crossAx val="371680768"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -483,7 +555,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="266223616"/>
+        <c:axId val="371680768"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -494,7 +566,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="254866944"/>
+        <c:crossAx val="371679232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -862,11 +934,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1030,7 +1102,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="8">
-        <f t="shared" ref="M4:P12" si="0">SUM(F4:L4)</f>
+        <f t="shared" ref="M4:M12" si="0">SUM(F4:L4)</f>
         <v>0</v>
       </c>
       <c r="N4" s="2"/>
@@ -1152,7 +1224,7 @@
         <v>38</v>
       </c>
       <c r="S6" s="11">
-        <f>(O6+Q6)/(P6+R6)</f>
+        <f t="shared" ref="S6:S12" si="1">(O6+Q6)/(P6+R6)</f>
         <v>0.86538461538461542</v>
       </c>
     </row>
@@ -1206,13 +1278,13 @@
       <c r="Q7" s="7"/>
       <c r="R7" s="7"/>
       <c r="S7" s="11" t="e">
-        <f>(O7+Q7)/(P7+R7)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
-        <f t="shared" ref="A8:A12" si="1">A7+1</f>
+        <f t="shared" ref="A8:A12" si="2">A7+1</f>
         <v>6</v>
       </c>
       <c r="B8" s="5" t="s">
@@ -1258,13 +1330,13 @@
       <c r="Q8" s="7"/>
       <c r="R8" s="7"/>
       <c r="S8" s="11" t="e">
-        <f>(O8+Q8)/(P8+R8)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>7</v>
       </c>
       <c r="B9" s="5" t="s">
@@ -1298,11 +1370,11 @@
         <v>0</v>
       </c>
       <c r="L9" s="8">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="M9" s="8">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="N9" s="2"/>
       <c r="O9" s="7"/>
@@ -1310,13 +1382,13 @@
       <c r="Q9" s="7"/>
       <c r="R9" s="7"/>
       <c r="S9" s="11" t="e">
-        <f>(O9+Q9)/(P9+R9)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>8</v>
       </c>
       <c r="B10" s="5" t="s">
@@ -1350,13 +1422,13 @@
       <c r="Q10" s="7"/>
       <c r="R10" s="7"/>
       <c r="S10" s="11" t="e">
-        <f>(O10+Q10)/(P10+R10)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
@@ -1388,13 +1460,13 @@
       <c r="Q11" s="7"/>
       <c r="R11" s="7"/>
       <c r="S11" s="11" t="e">
-        <f>(O11+Q11)/(P11+R11)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>10</v>
       </c>
       <c r="B12" s="5" t="s">
@@ -1424,13 +1496,14 @@
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
       <c r="S12" s="11" t="e">
-        <f>(O12+Q12)/(P12+R12)</f>
+        <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/TimeLog.xlsx
+++ b/TimeLog.xlsx
@@ -66,7 +66,9 @@
           </rPr>
           <t xml:space="preserve">
 start at 10.30
-</t>
+lunch 12-1pm
+coles/dinner 6-9.30pm
+total: 9.5hrs</t>
         </r>
       </text>
     </comment>
@@ -75,7 +77,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="26" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
   <si>
     <t>Lectures</t>
   </si>
@@ -153,6 +155,18 @@
   </si>
   <si>
     <t>Logic</t>
+  </si>
+  <si>
+    <t>Uni</t>
+  </si>
+  <si>
+    <t>SA</t>
+  </si>
+  <si>
+    <t>NLP</t>
+  </si>
+  <si>
+    <t>assignment</t>
   </si>
 </sst>
 </file>
@@ -285,11 +299,11 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="1" xfId="2" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -375,7 +389,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>6</c:v>
+                  <c:v>9.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -396,11 +410,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="344681088"/>
-        <c:axId val="353740672"/>
+        <c:axId val="324405120"/>
+        <c:axId val="324406656"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="344681088"/>
+        <c:axId val="324405120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -409,7 +423,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="353740672"/>
+        <c:crossAx val="324406656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -417,7 +431,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="353740672"/>
+        <c:axId val="324406656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -428,7 +442,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="344681088"/>
+        <c:crossAx val="324405120"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -534,11 +548,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="371679232"/>
-        <c:axId val="371680768"/>
+        <c:axId val="280214528"/>
+        <c:axId val="280224512"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="371679232"/>
+        <c:axId val="280214528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -547,7 +561,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="371680768"/>
+        <c:crossAx val="280224512"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -555,7 +569,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="371680768"/>
+        <c:axId val="280224512"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -566,7 +580,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="371679232"/>
+        <c:crossAx val="280214528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -938,7 +952,7 @@
   <dimension ref="A2:S12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,6 +962,7 @@
     <col min="3" max="5" width="9.140625" style="1"/>
     <col min="6" max="6" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" customWidth="1"/>
     <col min="19" max="19" width="11" style="3" bestFit="1" customWidth="1"/>
   </cols>
@@ -1019,7 +1034,7 @@
       <c r="D3" s="5">
         <v>3</v>
       </c>
-      <c r="E3" s="13">
+      <c r="E3" s="12">
         <v>1</v>
       </c>
       <c r="F3" s="8">
@@ -1302,17 +1317,17 @@
       <c r="F8" s="8">
         <v>3</v>
       </c>
-      <c r="G8" s="12">
-        <v>0</v>
-      </c>
-      <c r="H8" s="12">
-        <v>0</v>
-      </c>
-      <c r="I8" s="12">
-        <v>0</v>
-      </c>
-      <c r="J8" s="12">
-        <v>0</v>
+      <c r="G8" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="H8" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I8" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J8" s="9" t="s">
+        <v>29</v>
       </c>
       <c r="K8" s="8">
         <v>3</v>
@@ -1404,7 +1419,7 @@
         <v>1</v>
       </c>
       <c r="F10" s="8">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="G10" s="8"/>
       <c r="H10" s="8"/>
@@ -1414,7 +1429,7 @@
       <c r="L10" s="8"/>
       <c r="M10" s="8">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="7"/>
@@ -1502,8 +1517,9 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
+  <legacyDrawing r:id="rId3"/>
 </worksheet>
 </file>
 

--- a/TimeLog.xlsx
+++ b/TimeLog.xlsx
@@ -72,12 +72,39 @@
         </r>
       </text>
     </comment>
+    <comment ref="L10" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>jason chan:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+section- 8am
+chat with Jay
+lectures- 3hrs
+start assignment 3.30pm</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>Lectures</t>
   </si>
@@ -167,6 +194,9 @@
   </si>
   <si>
     <t>assignment</t>
+  </si>
+  <si>
+    <t>Extra Credit</t>
   </si>
 </sst>
 </file>
@@ -177,7 +207,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -220,8 +250,21 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -237,6 +280,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -270,7 +319,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -305,6 +354,9 @@
     <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="9" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -389,7 +441,7 @@
                   <c:v>19</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>9.5</c:v>
+                  <c:v>40.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
                   <c:v>0</c:v>
@@ -410,11 +462,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="324405120"/>
-        <c:axId val="324406656"/>
+        <c:axId val="349529600"/>
+        <c:axId val="349531136"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="324405120"/>
+        <c:axId val="349529600"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -423,7 +475,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="324406656"/>
+        <c:crossAx val="349531136"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -431,7 +483,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="324406656"/>
+        <c:axId val="349531136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -442,7 +494,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="324405120"/>
+        <c:crossAx val="349529600"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -500,6 +552,15 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:dLbls>
+            <c:showLegendKey val="0"/>
+            <c:showVal val="1"/>
+            <c:showCatName val="0"/>
+            <c:showSerName val="0"/>
+            <c:showPercent val="0"/>
+            <c:showBubbleSize val="0"/>
+            <c:showLeaderLines val="0"/>
+          </c:dLbls>
           <c:val>
             <c:numRef>
               <c:f>Sheet1!$S$3:$S$12</c:f>
@@ -516,10 +577,10 @@
                   <c:v>0.86538461538461542</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>0</c:v>
+                  <c:v>0.92156862745098034</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0</c:v>
+                  <c:v>0.98888888888888893</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0</c:v>
@@ -548,11 +609,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="280214528"/>
-        <c:axId val="280224512"/>
+        <c:axId val="349563904"/>
+        <c:axId val="349831936"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="280214528"/>
+        <c:axId val="349563904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -561,7 +622,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="280224512"/>
+        <c:crossAx val="349831936"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -569,7 +630,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="280224512"/>
+        <c:axId val="349831936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -580,7 +641,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="280214528"/>
+        <c:crossAx val="349563904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -631,16 +692,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>12</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>514350</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>66675</xdr:rowOff>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -949,10 +1010,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:S12"/>
+  <dimension ref="A2:S14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C18" sqref="C18"/>
+      <selection activeCell="N13" sqref="N13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1239,7 +1300,7 @@
         <v>38</v>
       </c>
       <c r="S6" s="11">
-        <f t="shared" ref="S6:S12" si="1">(O6+Q6)/(P6+R6)</f>
+        <f t="shared" ref="S6:S14" si="1">(O6+Q6)/(P6+R6)</f>
         <v>0.86538461538461542</v>
       </c>
     </row>
@@ -1288,13 +1349,21 @@
         <v>25</v>
       </c>
       <c r="N7" s="2"/>
-      <c r="O7" s="7"/>
-      <c r="P7" s="7"/>
-      <c r="Q7" s="7"/>
-      <c r="R7" s="7"/>
-      <c r="S7" s="11" t="e">
+      <c r="O7" s="7">
+        <v>19</v>
+      </c>
+      <c r="P7" s="7">
+        <v>20</v>
+      </c>
+      <c r="Q7" s="7">
+        <v>28</v>
+      </c>
+      <c r="R7" s="7">
+        <v>31</v>
+      </c>
+      <c r="S7" s="11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.92156862745098034</v>
       </c>
     </row>
     <row r="8" spans="1:19" x14ac:dyDescent="0.25">
@@ -1340,13 +1409,21 @@
         <v>9</v>
       </c>
       <c r="N8" s="2"/>
-      <c r="O8" s="7"/>
-      <c r="P8" s="7"/>
-      <c r="Q8" s="7"/>
-      <c r="R8" s="7"/>
-      <c r="S8" s="11" t="e">
+      <c r="O8" s="7">
+        <v>14.5</v>
+      </c>
+      <c r="P8" s="7">
+        <v>15</v>
+      </c>
+      <c r="Q8" s="7">
+        <v>30</v>
+      </c>
+      <c r="R8" s="7">
+        <v>30</v>
+      </c>
+      <c r="S8" s="11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.98888888888888893</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -1421,15 +1498,27 @@
       <c r="F10" s="8">
         <v>9.5</v>
       </c>
-      <c r="G10" s="8"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="8"/>
-      <c r="J10" s="8"/>
-      <c r="K10" s="8"/>
-      <c r="L10" s="8"/>
+      <c r="G10" s="8">
+        <v>4</v>
+      </c>
+      <c r="H10" s="8">
+        <v>3</v>
+      </c>
+      <c r="I10" s="8">
+        <v>5</v>
+      </c>
+      <c r="J10" s="8">
+        <v>4</v>
+      </c>
+      <c r="K10" s="8">
+        <v>0</v>
+      </c>
+      <c r="L10" s="8">
+        <v>15</v>
+      </c>
       <c r="M10" s="8">
         <f t="shared" si="0"/>
-        <v>9.5</v>
+        <v>40.5</v>
       </c>
       <c r="N10" s="2"/>
       <c r="O10" s="7"/>
@@ -1513,6 +1602,36 @@
       <c r="S12" s="11" t="e">
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="N13" s="16" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q13">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="O14" s="14">
+        <f>SUM(O3:O12)</f>
+        <v>99</v>
+      </c>
+      <c r="P14" s="14">
+        <f t="shared" ref="P14:R14" si="3">SUM(P3:P12)</f>
+        <v>113</v>
+      </c>
+      <c r="Q14" s="14">
+        <f t="shared" si="3"/>
+        <v>129</v>
+      </c>
+      <c r="R14" s="14">
+        <f t="shared" si="3"/>
+        <v>138</v>
+      </c>
+      <c r="S14" s="15">
+        <f t="shared" si="1"/>
+        <v>0.9083665338645418</v>
       </c>
     </row>
   </sheetData>

--- a/TimeLog.xlsx
+++ b/TimeLog.xlsx
@@ -80,7 +80,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t>jason chan:</t>
         </r>
@@ -89,7 +89,7 @@
             <sz val="9"/>
             <color indexed="81"/>
             <rFont val="Tahoma"/>
-            <charset val="1"/>
+            <family val="2"/>
           </rPr>
           <t xml:space="preserve">
 section- 8am
@@ -207,7 +207,7 @@
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -249,19 +249,6 @@
       <color indexed="81"/>
       <name val="Tahoma"/>
       <family val="2"/>
-    </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
     </font>
   </fonts>
   <fills count="5">
@@ -462,11 +449,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="349529600"/>
-        <c:axId val="349531136"/>
+        <c:axId val="337086720"/>
+        <c:axId val="338415616"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="349529600"/>
+        <c:axId val="337086720"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -475,7 +462,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="349531136"/>
+        <c:crossAx val="338415616"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -483,7 +470,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="349531136"/>
+        <c:axId val="338415616"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -494,7 +481,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="349529600"/>
+        <c:crossAx val="337086720"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -583,7 +570,7 @@
                   <c:v>0.98888888888888893</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0</c:v>
+                  <c:v>0.80952380952380953</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0</c:v>
@@ -609,11 +596,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="349563904"/>
-        <c:axId val="349831936"/>
+        <c:axId val="338313216"/>
+        <c:axId val="338314752"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="349563904"/>
+        <c:axId val="338313216"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -622,7 +609,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="349831936"/>
+        <c:crossAx val="338314752"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -630,7 +617,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="349831936"/>
+        <c:axId val="338314752"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -641,7 +628,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="349563904"/>
+        <c:crossAx val="338313216"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1013,7 +1000,7 @@
   <dimension ref="A2:S14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1469,13 +1456,21 @@
         <v>19</v>
       </c>
       <c r="N9" s="2"/>
-      <c r="O9" s="7"/>
-      <c r="P9" s="7"/>
-      <c r="Q9" s="7"/>
-      <c r="R9" s="7"/>
-      <c r="S9" s="11" t="e">
+      <c r="O9" s="7">
+        <v>12</v>
+      </c>
+      <c r="P9" s="7">
+        <v>14</v>
+      </c>
+      <c r="Q9" s="7">
+        <v>22</v>
+      </c>
+      <c r="R9" s="7">
+        <v>28</v>
+      </c>
+      <c r="S9" s="11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>0.80952380952380953</v>
       </c>
     </row>
     <row r="10" spans="1:19" x14ac:dyDescent="0.25">
@@ -1615,23 +1610,23 @@
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O14" s="14">
         <f>SUM(O3:O12)</f>
-        <v>99</v>
+        <v>111</v>
       </c>
       <c r="P14" s="14">
         <f t="shared" ref="P14:R14" si="3">SUM(P3:P12)</f>
-        <v>113</v>
+        <v>127</v>
       </c>
       <c r="Q14" s="14">
         <f t="shared" si="3"/>
-        <v>129</v>
+        <v>151</v>
       </c>
       <c r="R14" s="14">
         <f t="shared" si="3"/>
-        <v>138</v>
+        <v>166</v>
       </c>
       <c r="S14" s="15">
         <f t="shared" si="1"/>
-        <v>0.9083665338645418</v>
+        <v>0.89419795221843001</v>
       </c>
     </row>
   </sheetData>

--- a/TimeLog.xlsx
+++ b/TimeLog.xlsx
@@ -178,9 +178,6 @@
     <t>Car</t>
   </si>
   <si>
-    <t>-</t>
-  </si>
-  <si>
     <t>Logic</t>
   </si>
   <si>
@@ -197,6 +194,9 @@
   </si>
   <si>
     <t>Extra Credit</t>
+  </si>
+  <si>
+    <t>Finals</t>
   </si>
 </sst>
 </file>
@@ -306,7 +306,7 @@
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -344,6 +344,9 @@
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="9" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -431,10 +434,10 @@
                   <c:v>40.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
+                  <c:v>15</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>36</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -449,11 +452,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="337086720"/>
-        <c:axId val="338415616"/>
+        <c:axId val="383141760"/>
+        <c:axId val="383143296"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="337086720"/>
+        <c:axId val="383141760"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -462,7 +465,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="338415616"/>
+        <c:crossAx val="383143296"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -470,7 +473,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="338415616"/>
+        <c:axId val="383143296"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -481,7 +484,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="337086720"/>
+        <c:crossAx val="383141760"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -567,19 +570,16 @@
                   <c:v>0.92156862745098034</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.98888888888888893</c:v>
+                  <c:v>1.0777777777777777</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.80952380952380953</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0</c:v>
+                  <c:v>1.125</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>0</c:v>
+                  <c:v>1.1111111111111112</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -596,11 +596,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="338313216"/>
-        <c:axId val="338314752"/>
+        <c:axId val="383180160"/>
+        <c:axId val="383186048"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="338313216"/>
+        <c:axId val="383180160"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -609,7 +609,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="338314752"/>
+        <c:crossAx val="383186048"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -617,7 +617,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="338314752"/>
+        <c:axId val="383186048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -628,7 +628,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="338313216"/>
+        <c:crossAx val="383180160"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -999,8 +999,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:S14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="V13" sqref="V13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1374,16 +1374,16 @@
         <v>3</v>
       </c>
       <c r="G8" s="13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H8" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="H8" s="9" t="s">
+      <c r="I8" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="I8" s="9" t="s">
+      <c r="J8" s="9" t="s">
         <v>28</v>
-      </c>
-      <c r="J8" s="9" t="s">
-        <v>29</v>
       </c>
       <c r="K8" s="8">
         <v>3</v>
@@ -1403,14 +1403,15 @@
         <v>15</v>
       </c>
       <c r="Q8" s="7">
-        <v>30</v>
+        <f>30+4</f>
+        <v>34</v>
       </c>
       <c r="R8" s="7">
         <v>30</v>
       </c>
       <c r="S8" s="11">
         <f t="shared" si="1"/>
-        <v>0.98888888888888893</v>
+        <v>1.0777777777777777</v>
       </c>
     </row>
     <row r="9" spans="1:19" x14ac:dyDescent="0.25">
@@ -1516,13 +1517,21 @@
         <v>40.5</v>
       </c>
       <c r="N10" s="2"/>
-      <c r="O10" s="7"/>
-      <c r="P10" s="7"/>
-      <c r="Q10" s="7"/>
-      <c r="R10" s="7"/>
-      <c r="S10" s="11" t="e">
+      <c r="O10" s="7">
+        <v>22</v>
+      </c>
+      <c r="P10" s="7">
+        <v>16</v>
+      </c>
+      <c r="Q10" s="7">
+        <v>32</v>
+      </c>
+      <c r="R10" s="7">
+        <v>32</v>
+      </c>
+      <c r="S10" s="11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.125</v>
       </c>
     </row>
     <row r="11" spans="1:19" x14ac:dyDescent="0.25">
@@ -1531,7 +1540,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="5" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="C11" s="6">
         <v>44704</v>
@@ -1542,25 +1551,47 @@
       <c r="E11" s="5">
         <v>1</v>
       </c>
-      <c r="F11" s="8"/>
-      <c r="G11" s="8"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="8"/>
-      <c r="J11" s="8"/>
-      <c r="K11" s="8"/>
-      <c r="L11" s="8"/>
+      <c r="F11" s="8">
+        <v>3</v>
+      </c>
+      <c r="G11" s="8">
+        <v>3</v>
+      </c>
+      <c r="H11" s="8">
+        <v>3</v>
+      </c>
+      <c r="I11" s="8">
+        <v>0</v>
+      </c>
+      <c r="J11" s="8">
+        <v>0</v>
+      </c>
+      <c r="K11" s="8">
+        <v>3</v>
+      </c>
+      <c r="L11" s="8">
+        <v>3</v>
+      </c>
       <c r="M11" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>15</v>
       </c>
       <c r="N11" s="2"/>
-      <c r="O11" s="7"/>
-      <c r="P11" s="7"/>
-      <c r="Q11" s="7"/>
-      <c r="R11" s="7"/>
-      <c r="S11" s="11" t="e">
+      <c r="O11" s="7">
+        <v>6</v>
+      </c>
+      <c r="P11" s="7">
+        <v>6</v>
+      </c>
+      <c r="Q11" s="7">
+        <v>34</v>
+      </c>
+      <c r="R11" s="7">
+        <v>30</v>
+      </c>
+      <c r="S11" s="11">
         <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
+        <v>1.1111111111111112</v>
       </c>
     </row>
     <row r="12" spans="1:19" x14ac:dyDescent="0.25">
@@ -1568,65 +1599,90 @@
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="B12" s="5" t="s">
-        <v>24</v>
-      </c>
-      <c r="C12" s="5"/>
+      <c r="B12" s="5"/>
+      <c r="C12" s="6">
+        <v>44711</v>
+      </c>
       <c r="D12" s="5">
         <v>3</v>
       </c>
       <c r="E12" s="5">
         <v>1</v>
       </c>
-      <c r="F12" s="8"/>
-      <c r="G12" s="8"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="8"/>
-      <c r="J12" s="8"/>
-      <c r="K12" s="8"/>
-      <c r="L12" s="8"/>
+      <c r="F12" s="8">
+        <v>12</v>
+      </c>
+      <c r="G12" s="8">
+        <v>3</v>
+      </c>
+      <c r="H12" s="8">
+        <v>3</v>
+      </c>
+      <c r="I12" s="8">
+        <v>3</v>
+      </c>
+      <c r="J12" s="8">
+        <v>0</v>
+      </c>
+      <c r="K12" s="8">
+        <v>3</v>
+      </c>
+      <c r="L12" s="8">
+        <v>12</v>
+      </c>
       <c r="M12" s="8">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>36</v>
       </c>
       <c r="N12" s="2"/>
       <c r="O12" s="7"/>
       <c r="P12" s="7"/>
       <c r="Q12" s="7"/>
       <c r="R12" s="7"/>
-      <c r="S12" s="11" t="e">
-        <f t="shared" si="1"/>
-        <v>#DIV/0!</v>
-      </c>
+      <c r="S12" s="11"/>
     </row>
     <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13" s="5"/>
+      <c r="B13" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C13" s="6">
+        <v>44717</v>
+      </c>
+      <c r="D13" s="5"/>
+      <c r="E13" s="5"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="7"/>
+      <c r="H13" s="7"/>
+      <c r="I13" s="7"/>
+      <c r="J13" s="7"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="7"/>
+      <c r="M13" s="7"/>
       <c r="N13" s="16" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q13">
-        <v>4</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:19" x14ac:dyDescent="0.25">
       <c r="O14" s="14">
         <f>SUM(O3:O12)</f>
-        <v>111</v>
+        <v>139</v>
       </c>
       <c r="P14" s="14">
         <f t="shared" ref="P14:R14" si="3">SUM(P3:P12)</f>
-        <v>127</v>
+        <v>149</v>
       </c>
       <c r="Q14" s="14">
-        <f t="shared" si="3"/>
-        <v>151</v>
+        <f>SUM(Q3:Q12)</f>
+        <v>221</v>
       </c>
       <c r="R14" s="14">
         <f t="shared" si="3"/>
-        <v>166</v>
+        <v>228</v>
       </c>
       <c r="S14" s="15">
-        <f t="shared" si="1"/>
-        <v>0.89419795221843001</v>
+        <f>(O14+Q14)/(P14+R14)</f>
+        <v>0.95490716180371349</v>
       </c>
     </row>
   </sheetData>

--- a/TimeLog.xlsx
+++ b/TimeLog.xlsx
@@ -104,7 +104,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="33">
   <si>
     <t>Lectures</t>
   </si>
@@ -193,10 +193,16 @@
     <t>assignment</t>
   </si>
   <si>
-    <t>Extra Credit</t>
-  </si>
-  <si>
     <t>Finals</t>
+  </si>
+  <si>
+    <t>Assignments</t>
+  </si>
+  <si>
+    <t>Exam</t>
+  </si>
+  <si>
+    <t>Final result</t>
   </si>
 </sst>
 </file>
@@ -277,7 +283,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -300,13 +306,84 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -345,6 +422,15 @@
     <xf numFmtId="9" fontId="3" fillId="4" borderId="1" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -405,10 +491,10 @@
           <c:invertIfNegative val="0"/>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$M$3:$M$12</c:f>
+              <c:f>Sheet1!$M$3:$M$13</c:f>
               <c:numCache>
                 <c:formatCode>_-* #,##0_-;\-* #,##0_-;_-* "-"??_-;_-@_-</c:formatCode>
-                <c:ptCount val="10"/>
+                <c:ptCount val="11"/>
                 <c:pt idx="0">
                   <c:v>12</c:v>
                 </c:pt>
@@ -438,6 +524,9 @@
                 </c:pt>
                 <c:pt idx="9">
                   <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -452,11 +541,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="383141760"/>
-        <c:axId val="383143296"/>
+        <c:axId val="334332672"/>
+        <c:axId val="334334208"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="383141760"/>
+        <c:axId val="334332672"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -465,7 +554,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="383143296"/>
+        <c:crossAx val="334334208"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -473,7 +562,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="383143296"/>
+        <c:axId val="334334208"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -484,7 +573,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="383141760"/>
+        <c:crossAx val="334332672"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -596,11 +685,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="383180160"/>
-        <c:axId val="383186048"/>
+        <c:axId val="334354688"/>
+        <c:axId val="334237696"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="383180160"/>
+        <c:axId val="334354688"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -609,7 +698,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="383186048"/>
+        <c:crossAx val="334237696"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -617,7 +706,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="383186048"/>
+        <c:axId val="334237696"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -628,7 +717,7 @@
         <c:majorTickMark val="out"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="383180160"/>
+        <c:crossAx val="334354688"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -649,16 +738,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>533400</xdr:colOff>
-      <xdr:row>13</xdr:row>
-      <xdr:rowOff>9525</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>167053</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>46158</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>12</xdr:col>
-      <xdr:colOff>590550</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:colOff>14654</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>122358</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -679,16 +768,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>514350</xdr:colOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>23447</xdr:colOff>
       <xdr:row>15</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
+      <xdr:rowOff>10258</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>21</xdr:col>
-      <xdr:colOff>161925</xdr:colOff>
+      <xdr:colOff>279157</xdr:colOff>
       <xdr:row>29</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>86458</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -997,10 +1086,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:S14"/>
+  <dimension ref="A2:V14"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="V13" sqref="V13"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="W16" sqref="W16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1013,9 +1102,10 @@
     <col min="10" max="10" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="8" customWidth="1"/>
     <col min="19" max="19" width="11" style="3" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="12.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A2" s="4" t="s">
         <v>10</v>
       </c>
@@ -1068,8 +1158,11 @@
       <c r="S2" s="10" t="s">
         <v>13</v>
       </c>
+      <c r="U2" s="24" t="s">
+        <v>32</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A3" s="5">
         <v>1</v>
       </c>
@@ -1080,7 +1173,7 @@
         <v>44648</v>
       </c>
       <c r="D3" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E3" s="12">
         <v>1</v>
@@ -1126,8 +1219,15 @@
         <f>(O3+Q3)/(P3+R3)</f>
         <v>0.90909090909090906</v>
       </c>
+      <c r="U3" s="18" t="s">
+        <v>30</v>
+      </c>
+      <c r="V3" s="19">
+        <f>S14*0.75</f>
+        <v>0.71618037135278512</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -1138,7 +1238,7 @@
         <v>44655</v>
       </c>
       <c r="D4" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E4" s="5">
         <v>1</v>
@@ -1165,7 +1265,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="8">
-        <f t="shared" ref="M4:M12" si="0">SUM(F4:L4)</f>
+        <f t="shared" ref="M4:M13" si="0">SUM(F4:L4)</f>
         <v>0</v>
       </c>
       <c r="N4" s="2"/>
@@ -1185,8 +1285,15 @@
         <f>(O4+Q4)/(P4+R4)</f>
         <v>0.86458333333333337</v>
       </c>
+      <c r="U4" s="20" t="s">
+        <v>31</v>
+      </c>
+      <c r="V4" s="21">
+        <f>0.25*0.7</f>
+        <v>0.17499999999999999</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:22" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="5">
         <v>3</v>
       </c>
@@ -1195,7 +1302,7 @@
         <v>44662</v>
       </c>
       <c r="D5" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E5" s="5">
         <v>1</v>
@@ -1231,8 +1338,13 @@
       <c r="Q5" s="8"/>
       <c r="R5" s="8"/>
       <c r="S5" s="11"/>
+      <c r="U5" s="22"/>
+      <c r="V5" s="23">
+        <f>SUM(V3:V4)</f>
+        <v>0.89118037135278505</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>4</v>
       </c>
@@ -1243,7 +1355,7 @@
         <v>44669</v>
       </c>
       <c r="D6" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E6" s="5">
         <v>1</v>
@@ -1287,11 +1399,11 @@
         <v>38</v>
       </c>
       <c r="S6" s="11">
-        <f t="shared" ref="S6:S14" si="1">(O6+Q6)/(P6+R6)</f>
+        <f t="shared" ref="S6:S11" si="1">(O6+Q6)/(P6+R6)</f>
         <v>0.86538461538461542</v>
       </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <f>A6+1</f>
         <v>5</v>
@@ -1304,7 +1416,7 @@
         <v>44676</v>
       </c>
       <c r="D7" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E7" s="5">
         <v>1</v>
@@ -1353,7 +1465,7 @@
         <v>0.92156862745098034</v>
       </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <f t="shared" ref="A8:A12" si="2">A7+1</f>
         <v>6</v>
@@ -1365,7 +1477,7 @@
         <v>44683</v>
       </c>
       <c r="D8" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E8" s="5">
         <v>1</v>
@@ -1414,7 +1526,7 @@
         <v>1.0777777777777777</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <f t="shared" si="2"/>
         <v>7</v>
@@ -1426,7 +1538,7 @@
         <v>44690</v>
       </c>
       <c r="D9" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E9" s="5">
         <v>1</v>
@@ -1474,7 +1586,7 @@
         <v>0.80952380952380953</v>
       </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A10" s="5">
         <f t="shared" si="2"/>
         <v>8</v>
@@ -1486,7 +1598,7 @@
         <v>44697</v>
       </c>
       <c r="D10" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E10" s="5">
         <v>1</v>
@@ -1534,7 +1646,7 @@
         <v>1.125</v>
       </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A11" s="5">
         <f t="shared" si="2"/>
         <v>9</v>
@@ -1546,7 +1658,7 @@
         <v>44704</v>
       </c>
       <c r="D11" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E11" s="5">
         <v>1</v>
@@ -1594,17 +1706,19 @@
         <v>1.1111111111111112</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A12" s="5">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="B12" s="5"/>
+      <c r="B12" s="5" t="s">
+        <v>29</v>
+      </c>
       <c r="C12" s="6">
         <v>44711</v>
       </c>
       <c r="D12" s="5">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E12" s="5">
         <v>1</v>
@@ -1641,29 +1755,54 @@
       <c r="R12" s="7"/>
       <c r="S12" s="11"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
-      <c r="A13" s="5"/>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
       <c r="B13" s="5" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C13" s="6">
-        <v>44717</v>
-      </c>
-      <c r="D13" s="5"/>
-      <c r="E13" s="5"/>
-      <c r="F13" s="17"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="7"/>
-      <c r="I13" s="7"/>
-      <c r="J13" s="7"/>
-      <c r="K13" s="7"/>
-      <c r="L13" s="7"/>
-      <c r="M13" s="7"/>
-      <c r="N13" s="16" t="s">
+        <v>44718</v>
+      </c>
+      <c r="D13" s="5">
+        <v>2</v>
+      </c>
+      <c r="E13" s="5">
+        <v>1</v>
+      </c>
+      <c r="F13" s="17">
+        <v>12</v>
+      </c>
+      <c r="G13" s="7">
+        <v>4</v>
+      </c>
+      <c r="H13" s="7">
+        <v>4</v>
+      </c>
+      <c r="I13" s="7">
+        <v>6</v>
+      </c>
+      <c r="J13" s="7">
+        <v>3</v>
+      </c>
+      <c r="K13" s="7">
+        <v>0</v>
+      </c>
+      <c r="L13" s="7">
+        <v>0</v>
+      </c>
+      <c r="M13" s="8">
+        <f t="shared" si="0"/>
         <v>29</v>
       </c>
+      <c r="N13" s="16"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="M14" s="14">
+        <f>SUM(M3:M12)</f>
+        <v>203</v>
+      </c>
       <c r="O14" s="14">
         <f>SUM(O3:O12)</f>
         <v>139</v>
